--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>variable</t>
   </si>
@@ -30,7 +30,34 @@
     <t>fine</t>
   </si>
   <si>
-    <t>Velocity</t>
+    <t>phi_-39.1919</t>
+  </si>
+  <si>
+    <t>phi_-30.4826</t>
+  </si>
+  <si>
+    <t>phi_-21.7733</t>
+  </si>
+  <si>
+    <t>phi_-13.0640</t>
+  </si>
+  <si>
+    <t>phi_-4.3547</t>
+  </si>
+  <si>
+    <t>phi_4.3547</t>
+  </si>
+  <si>
+    <t>phi_13.0640</t>
+  </si>
+  <si>
+    <t>phi_21.7733</t>
+  </si>
+  <si>
+    <t>phi_30.4826</t>
+  </si>
+  <si>
+    <t>phi_39.1919</t>
   </si>
   <si>
     <t>volume</t>
@@ -391,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +443,139 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.863</v>
+        <v>0.120924</v>
       </c>
       <c r="C2">
-        <v>5.972</v>
+        <v>0.116145</v>
       </c>
       <c r="D2">
-        <v>6.063</v>
+        <v>0.118937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.08313353698746626</v>
+      </c>
+      <c r="C3">
+        <v>0.08325055113869845</v>
+      </c>
+      <c r="D3">
+        <v>0.07869540588008678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.04510535966394135</v>
+      </c>
+      <c r="C4">
+        <v>0.04327766567578703</v>
+      </c>
+      <c r="D4">
+        <v>0.01962174307688415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.04927181992785484</v>
+      </c>
+      <c r="C5">
+        <v>0.04831601618694159</v>
+      </c>
+      <c r="D5">
+        <v>0.03527291702804757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0444909215296873</v>
+      </c>
+      <c r="C6">
+        <v>0.04064737760740005</v>
+      </c>
+      <c r="D6">
+        <v>0.03377856020384222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.04446278147651022</v>
+      </c>
+      <c r="C7">
+        <v>0.03459031610385357</v>
+      </c>
+      <c r="D7">
+        <v>0.02995992030396654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.0433806495083609</v>
+      </c>
+      <c r="C8">
+        <v>0.03202902288953169</v>
+      </c>
+      <c r="D8">
+        <v>0.03084765277430867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.03359750051473912</v>
+      </c>
+      <c r="C9">
+        <v>0.02836952809101961</v>
+      </c>
+      <c r="D9">
+        <v>0.02723070981112298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.03431110190727814</v>
+      </c>
+      <c r="C10">
+        <v>0.0269160311711211</v>
+      </c>
+      <c r="D10">
+        <v>0.02045414466966808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.179188</v>
+      </c>
+      <c r="C11">
+        <v>0.189516</v>
+      </c>
+      <c r="D11">
+        <v>0.201711</v>
       </c>
     </row>
   </sheetData>
@@ -451,13 +604,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4500</v>
+        <v>1748965</v>
       </c>
       <c r="B2">
-        <v>8000</v>
+        <v>2491264</v>
       </c>
       <c r="C2">
-        <v>18000</v>
+        <v>4174866</v>
       </c>
     </row>
   </sheetData>
@@ -475,12 +628,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>76</v>
+        <v>78415.25999999999</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -443,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="B2">
+        <v>0.116385</v>
+      </c>
+      <c r="C2">
         <v>0.120924</v>
       </c>
-      <c r="C2">
-        <v>0.116145</v>
-      </c>
       <c r="D2">
-        <v>0.118937</v>
+        <v>0.124169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>0.1088098969120531</v>
+      </c>
+      <c r="C3">
         <v>0.08313353698746626</v>
       </c>
-      <c r="C3">
-        <v>0.08325055113869845</v>
-      </c>
       <c r="D3">
-        <v>0.07869540588008678</v>
+        <v>0.0884639535325617</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="B4">
+        <v>0.05609367140965987</v>
+      </c>
+      <c r="C4">
         <v>0.04510535966394135</v>
       </c>
-      <c r="C4">
-        <v>0.04327766567578703</v>
-      </c>
       <c r="D4">
-        <v>0.01962174307688415</v>
+        <v>0.04395225753250435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -485,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="B5">
+        <v>0.0515836105596202</v>
+      </c>
+      <c r="C5">
         <v>0.04927181992785484</v>
       </c>
-      <c r="C5">
-        <v>0.04831601618694159</v>
-      </c>
       <c r="D5">
-        <v>0.03527291702804757</v>
+        <v>0.04043054893970422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -499,13 +499,13 @@
         <v>8</v>
       </c>
       <c r="B6">
+        <v>0.05100365171875737</v>
+      </c>
+      <c r="C6">
         <v>0.0444909215296873</v>
       </c>
-      <c r="C6">
-        <v>0.04064737760740005</v>
-      </c>
       <c r="D6">
-        <v>0.03377856020384222</v>
+        <v>0.02993859020240561</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -513,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <v>0.05088486074867121</v>
+      </c>
+      <c r="C7">
         <v>0.04446278147651022</v>
       </c>
-      <c r="C7">
-        <v>0.03459031610385357</v>
-      </c>
       <c r="D7">
-        <v>0.02995992030396654</v>
+        <v>0.03567471147229517</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>0.04663806688978126</v>
+      </c>
+      <c r="C8">
         <v>0.0433806495083609</v>
       </c>
-      <c r="C8">
-        <v>0.03202902288953169</v>
-      </c>
       <c r="D8">
-        <v>0.03084765277430867</v>
+        <v>0.03830120507474102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -541,13 +541,13 @@
         <v>11</v>
       </c>
       <c r="B9">
+        <v>0.03036599542765936</v>
+      </c>
+      <c r="C9">
         <v>0.03359750051473912</v>
       </c>
-      <c r="C9">
-        <v>0.02836952809101961</v>
-      </c>
       <c r="D9">
-        <v>0.02723070981112298</v>
+        <v>0.03302289985585431</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -555,13 +555,13 @@
         <v>12</v>
       </c>
       <c r="B10">
+        <v>0.06018899484969921</v>
+      </c>
+      <c r="C10">
         <v>0.03431110190727814</v>
       </c>
-      <c r="C10">
-        <v>0.0269160311711211</v>
-      </c>
       <c r="D10">
-        <v>0.02045414466966808</v>
+        <v>0.02069044316097955</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -569,13 +569,13 @@
         <v>13</v>
       </c>
       <c r="B11">
+        <v>0.118676</v>
+      </c>
+      <c r="C11">
         <v>0.179188</v>
       </c>
-      <c r="C11">
-        <v>0.189516</v>
-      </c>
       <c r="D11">
-        <v>0.201711</v>
+        <v>0.239373</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>variable</t>
   </si>
@@ -30,34 +30,13 @@
     <t>fine</t>
   </si>
   <si>
-    <t>phi_-39.1919</t>
-  </si>
-  <si>
-    <t>phi_-30.4826</t>
-  </si>
-  <si>
-    <t>phi_-21.7733</t>
-  </si>
-  <si>
-    <t>phi_-13.0640</t>
-  </si>
-  <si>
-    <t>phi_-4.3547</t>
-  </si>
-  <si>
-    <t>phi_4.3547</t>
-  </si>
-  <si>
-    <t>phi_13.0640</t>
-  </si>
-  <si>
-    <t>phi_21.7733</t>
-  </si>
-  <si>
-    <t>phi_30.4826</t>
-  </si>
-  <si>
-    <t>phi_39.1919</t>
+    <t xml:space="preserve">Velocidade Média		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia Cinética Turbulenta Média		</t>
+  </si>
+  <si>
+    <t>Intensidade Turbulenta Média</t>
   </si>
   <si>
     <t>volume</t>
@@ -418,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,13 +422,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.116385</v>
+        <v>0.07208385</v>
       </c>
       <c r="C2">
-        <v>0.120924</v>
+        <v>0.07165175999999999</v>
       </c>
       <c r="D2">
-        <v>0.124169</v>
+        <v>0.07219689</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -457,13 +436,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1088098969120531</v>
+        <v>0.0007130115</v>
       </c>
       <c r="C3">
-        <v>0.08313353698746626</v>
+        <v>0.0007361449</v>
       </c>
       <c r="D3">
-        <v>0.0884639535325617</v>
+        <v>0.000707893</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -471,111 +450,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.05609367140965987</v>
+        <v>1.710536</v>
       </c>
       <c r="C4">
-        <v>0.04510535966394135</v>
+        <v>1.721017</v>
       </c>
       <c r="D4">
-        <v>0.04395225753250435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.0515836105596202</v>
-      </c>
-      <c r="C5">
-        <v>0.04927181992785484</v>
-      </c>
-      <c r="D5">
-        <v>0.04043054893970422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.05100365171875737</v>
-      </c>
-      <c r="C6">
-        <v>0.0444909215296873</v>
-      </c>
-      <c r="D6">
-        <v>0.02993859020240561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.05088486074867121</v>
-      </c>
-      <c r="C7">
-        <v>0.04446278147651022</v>
-      </c>
-      <c r="D7">
-        <v>0.03567471147229517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.04663806688978126</v>
-      </c>
-      <c r="C8">
-        <v>0.0433806495083609</v>
-      </c>
-      <c r="D8">
-        <v>0.03830120507474102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.03036599542765936</v>
-      </c>
-      <c r="C9">
-        <v>0.03359750051473912</v>
-      </c>
-      <c r="D9">
-        <v>0.03302289985585431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.06018899484969921</v>
-      </c>
-      <c r="C10">
-        <v>0.03431110190727814</v>
-      </c>
-      <c r="D10">
-        <v>0.02069044316097955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.118676</v>
-      </c>
-      <c r="C11">
-        <v>0.179188</v>
-      </c>
-      <c r="D11">
-        <v>0.239373</v>
+        <v>1.594625</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -30,13 +30,13 @@
     <t>fine</t>
   </si>
   <si>
-    <t xml:space="preserve">Velocidade Média		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energia Cinética Turbulenta Média		</t>
-  </si>
-  <si>
-    <t>Intensidade Turbulenta Média</t>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>volume</t>
@@ -456,7 +456,7 @@
         <v>1.721017</v>
       </c>
       <c r="D4">
-        <v>1.594625</v>
+        <v>1.732018</v>
       </c>
     </row>
   </sheetData>
@@ -485,13 +485,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1748965</v>
+        <v>1258479</v>
       </c>
       <c r="B2">
-        <v>2491264</v>
+        <v>23587985</v>
       </c>
       <c r="C2">
-        <v>4174866</v>
+        <v>4253687</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +514,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>78415.25999999999</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -30,13 +30,13 @@
     <t>fine</t>
   </si>
   <si>
-    <t>Velocidade</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>I</t>
+    <t>u</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
   <si>
     <t>volume</t>
@@ -422,13 +422,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.07208385</v>
+        <v>5.863</v>
       </c>
       <c r="C2">
-        <v>0.07165175999999999</v>
+        <v>5.972</v>
       </c>
       <c r="D2">
-        <v>0.07219689</v>
+        <v>6.063</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -436,13 +436,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0007130115</v>
+        <v>0.00919</v>
       </c>
       <c r="C3">
-        <v>0.0007361449</v>
+        <v>0.008718999999999999</v>
       </c>
       <c r="D3">
-        <v>0.000707893</v>
+        <v>0.008522999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -485,13 +485,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1258479</v>
+        <v>4500</v>
       </c>
       <c r="B2">
-        <v>23587985</v>
+        <v>8000</v>
       </c>
       <c r="C2">
-        <v>4253687</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>variable</t>
   </si>
@@ -33,16 +30,7 @@
     <t>fine</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Coefficient of Variation</t>
+    <t>u</t>
   </si>
   <si>
     <t>volume</t>
@@ -403,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,76 +410,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>5.863</v>
       </c>
       <c r="C2">
-        <v>0.6306836866502078</v>
+        <v>5.972</v>
       </c>
       <c r="D2">
-        <v>0.6187786730549253</v>
-      </c>
-      <c r="E2">
-        <v>0.6126318529329569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.208289031674727</v>
-      </c>
-      <c r="D3">
-        <v>0.2107123600455134</v>
-      </c>
-      <c r="E3">
-        <v>0.2113512510940114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.04338432071599541</v>
-      </c>
-      <c r="D4">
-        <v>0.04439969867595008</v>
-      </c>
-      <c r="E4">
-        <v>0.04466935133900386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>33.02591078279293</v>
-      </c>
-      <c r="D5">
-        <v>34.05294481227374</v>
-      </c>
-      <c r="E5">
-        <v>34.49890012773145</v>
+        <v>6.063</v>
       </c>
     </row>
   </sheetData>
@@ -509,24 +440,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8892</v>
+        <v>4500</v>
       </c>
       <c r="B2">
-        <v>62711</v>
+        <v>8000</v>
       </c>
       <c r="C2">
-        <v>470421</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -544,12 +475,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>variable</t>
   </si>
@@ -30,7 +33,16 @@
     <t>fine</t>
   </si>
   <si>
-    <t>u</t>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation</t>
   </si>
   <si>
     <t>volume</t>
@@ -391,13 +403,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,19 +422,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>5.863</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5.972</v>
+        <v>0.6306836866502078</v>
       </c>
       <c r="D2">
-        <v>6.063</v>
+        <v>0.6187786730549253</v>
+      </c>
+      <c r="E2">
+        <v>0.6126318529329569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.208289031674727</v>
+      </c>
+      <c r="D3">
+        <v>0.2107123600455134</v>
+      </c>
+      <c r="E3">
+        <v>0.2113512510940114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.04338432071599541</v>
+      </c>
+      <c r="D4">
+        <v>0.04439969867595008</v>
+      </c>
+      <c r="E4">
+        <v>0.04466935133900386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>33.02591078279293</v>
+      </c>
+      <c r="D5">
+        <v>34.05294481227374</v>
+      </c>
+      <c r="E5">
+        <v>34.49890012773145</v>
       </c>
     </row>
   </sheetData>
@@ -440,24 +509,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4500</v>
+        <v>8892</v>
       </c>
       <c r="B2">
-        <v>8000</v>
+        <v>62711</v>
       </c>
       <c r="C2">
-        <v>18000</v>
+        <v>470421</v>
       </c>
     </row>
   </sheetData>
@@ -475,12 +544,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>52</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>variable</t>
   </si>
@@ -403,13 +400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,76 +419,61 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0.3779213719689063</v>
+      </c>
+      <c r="C2">
+        <v>0.3816655291925845</v>
+      </c>
+      <c r="D2">
+        <v>0.383837973585105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.6306836866502078</v>
-      </c>
-      <c r="D2">
-        <v>0.6187786730549253</v>
-      </c>
-      <c r="E2">
-        <v>0.6126318529329569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0.2867770183890941</v>
+      </c>
+      <c r="C3">
+        <v>0.2929482961421949</v>
+      </c>
+      <c r="D3">
+        <v>0.2971323599573073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0.208289031674727</v>
-      </c>
-      <c r="D3">
-        <v>0.2107123600455134</v>
-      </c>
-      <c r="E3">
-        <v>0.2113512510940114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0.08224105827613883</v>
+      </c>
+      <c r="C4">
+        <v>0.08581870421261514</v>
+      </c>
+      <c r="D4">
+        <v>0.08828763933379884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.04338432071599541</v>
-      </c>
-      <c r="D4">
-        <v>0.04439969867595008</v>
-      </c>
-      <c r="E4">
-        <v>0.04466935133900386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>0.7588272049686803</v>
       </c>
       <c r="C5">
-        <v>33.02591078279293</v>
+        <v>0.767552408418776</v>
       </c>
       <c r="D5">
-        <v>34.05294481227374</v>
-      </c>
-      <c r="E5">
-        <v>34.49890012773145</v>
+        <v>0.7741088177963372</v>
       </c>
     </row>
   </sheetData>
@@ -509,13 +491,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -544,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>variable</t>
   </si>
@@ -400,13 +403,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,61 +422,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.3779213719689063</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.3816655291925845</v>
+        <v>0.4305099655428042</v>
       </c>
       <c r="D2">
-        <v>0.383837973585105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.2867770183890941</v>
+        <v>0.4289701383089291</v>
+      </c>
+      <c r="E2">
+        <v>0.4275098360405326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.2929482961421949</v>
+        <v>0.08444725529611972</v>
       </c>
       <c r="D3">
-        <v>0.2971323599573073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.08224105827613883</v>
+        <v>0.08885734646265671</v>
+      </c>
+      <c r="E3">
+        <v>0.08941429023735328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.08581870421261514</v>
+        <v>0.007131338927048022</v>
       </c>
       <c r="D4">
-        <v>0.08828763933379884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.7588272049686803</v>
+        <v>0.007895628020384611</v>
+      </c>
+      <c r="E4">
+        <v>0.00799491529864965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.767552408418776</v>
+        <v>19.61563309914214</v>
       </c>
       <c r="D5">
-        <v>0.7741088177963372</v>
+        <v>20.71411003407999</v>
+      </c>
+      <c r="E5">
+        <v>20.91514222584479</v>
       </c>
     </row>
   </sheetData>
@@ -491,13 +509,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -526,12 +544,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/setups/Var_Table.xlsx
+++ b/setups/Var_Table.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>variable</t>
   </si>
@@ -33,16 +30,7 @@
     <t>fine</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Coefficient of Variation</t>
+    <t>u</t>
   </si>
   <si>
     <t>volume</t>
@@ -403,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,76 +410,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>5.863</v>
       </c>
       <c r="C2">
-        <v>0.4305099655428042</v>
+        <v>5.972</v>
       </c>
       <c r="D2">
-        <v>0.4289701383089291</v>
-      </c>
-      <c r="E2">
-        <v>0.4275098360405326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.08444725529611972</v>
-      </c>
-      <c r="D3">
-        <v>0.08885734646265671</v>
-      </c>
-      <c r="E3">
-        <v>0.08941429023735328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.007131338927048022</v>
-      </c>
-      <c r="D4">
-        <v>0.007895628020384611</v>
-      </c>
-      <c r="E4">
-        <v>0.00799491529864965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>19.61563309914214</v>
-      </c>
-      <c r="D5">
-        <v>20.71411003407999</v>
-      </c>
-      <c r="E5">
-        <v>20.91514222584479</v>
+        <v>6.063</v>
       </c>
     </row>
   </sheetData>
@@ -509,24 +440,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8892</v>
+        <v>4500</v>
       </c>
       <c r="B2">
-        <v>62711</v>
+        <v>8000</v>
       </c>
       <c r="C2">
-        <v>470421</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -544,12 +475,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
